--- a/GARC structure.xlsx
+++ b/GARC structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Pokemon-Forme-Insertion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8233E005-A5EA-4B26-B439-2D4482333F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C710B9-41F8-406D-B57C-D7A90E4EF5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{60F26730-2A2B-4045-9D7D-F01210D18462}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{60F26730-2A2B-4045-9D7D-F01210D18462}"/>
   </bookViews>
   <sheets>
     <sheet name="a013" sheetId="1" r:id="rId1"/>
@@ -183,12 +183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -203,8 +209,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,340 +546,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89C5298A-E949-4E5E-857E-F021FED25A9C}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.265625" customWidth="1"/>
-    <col min="3" max="3" width="31.06640625" customWidth="1"/>
+    <col min="1" max="2" width="24.33203125" customWidth="1"/>
+    <col min="4" max="4" width="63.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="str">
-        <f>DEC2HEX(HEX2DEC(A2)+HEX2DEC(B2))</f>
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
+        <f>DEC2HEX(HEX2DEC(A2)+HEX2DEC(C2))</f>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="str">
-        <f t="shared" ref="A4:A17" si="0">DEC2HEX(HEX2DEC(A3)+HEX2DEC(B3))</f>
+        <f>DEC2HEX(HEX2DEC(A3)+HEX2DEC(C3))</f>
         <v>8</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(HEX2DEC(A4)+HEX2DEC(C4))</f>
         <v>A</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(HEX2DEC(A5)+HEX2DEC(C5))</f>
         <v>C</v>
       </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(HEX2DEC(A6)+HEX2DEC(C6))</f>
         <v>10</v>
       </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(HEX2DEC(A7)+HEX2DEC(C7))</f>
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(HEX2DEC(A8)+HEX2DEC(C8))</f>
         <v>18</v>
       </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(HEX2DEC(A9)+HEX2DEC(C9))</f>
         <v>1C</v>
       </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
         <v>41</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(HEX2DEC(A10)+HEX2DEC(C10))</f>
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
         <v>42</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(HEX2DEC(A11)+HEX2DEC(C11))</f>
         <v>24</v>
       </c>
       <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(HEX2DEC(A12)+HEX2DEC(C12))</f>
         <v>28</v>
       </c>
-      <c r="B13">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B13" t="str">
+        <f>DEC2HEX(HEX2DEC(A13)-36)</f>
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(HEX2DEC(A13)+HEX2DEC(C13))</f>
         <v>2C</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="str">
+        <f>DEC2HEX(HEX2DEC(A14)-36)</f>
+        <v>8</v>
+      </c>
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(HEX2DEC(A14)+HEX2DEC(C14))</f>
         <v>2E</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="str">
+        <f>DEC2HEX(HEX2DEC(A15)-36)</f>
+        <v>A</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A16" t="str">
-        <f t="shared" si="0"/>
+        <f>DEC2HEX(HEX2DEC(A15)+HEX2DEC(C15))</f>
         <v>30</v>
       </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" t="str">
+        <f>DEC2HEX(HEX2DEC(A16)-36)</f>
+        <v>C</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
         <v>32</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B26">
-        <v>4</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
         <v>35</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E27" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B27">
-        <v>4</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
         <v>36</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E28" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B28">
-        <v>4</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="D31" t="s">
         <v>43</v>
       </c>
+      <c r="E31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
